--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.52</t>
+          <t>50.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000850</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合C</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>84.52</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.96</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>540009</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信消费红利股票</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>540009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>汇丰晋信消费红利股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>70.37</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>001331</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>鹏华弘信灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>003780</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>001325</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>鹏华弘和灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>001327</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>鹏华弘华灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>003142</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>鹏华弘达灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001325</t>
+          <t>003663</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华弘和灵活配置混合A</t>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001326</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华弘和灵活配置混合C</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.81</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001327</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华弘华灵活配置混合A</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001328</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华弘华灵活配置混合C</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001331</t>
+          <t>000850</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华弘信灵活配置混合A</t>
+          <t>汇丰晋信双核策略混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26.16</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001332</t>
+          <t>003143</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华弘信灵活配置混合C</t>
+          <t>鹏华弘达灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26.16</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>001328</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>鹏华弘华灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>005258</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>景顺长城量化平衡灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>001326</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>鹏华弘和灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>001332</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>鹏华弘信灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>39.96</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003142</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鹏华弘达灵活配置混合A</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003143</t>
+          <t>005120</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鹏华弘达灵活配置混合C</t>
+          <t>上投摩根量化多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1192,25 +1452,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005120</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005258</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>87.92</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>003663</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26.61</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003780</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鹏华兴悦定期开放灵活配置混合</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>26.88</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1630,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.44</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>000849</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>汇丰晋信双核策略混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>53.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000849</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信双核策略混合A</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>53.66</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1556,15 +1936,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>53.66</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>99.38</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.57</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>003275</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>国联安添利增长债券A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.62</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003275</t>
+          <t>003366</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国联安添利增长债券A</t>
+          <t>浙商汇金中证转型成长指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1724,15 +2164,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>20.40</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2588,4 +2589,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华通利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2873,4 +2874,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.61</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.31</v>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +3048,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3091,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,17 +3103,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3143,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.36</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3138,14 +3181,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.68</v>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3154,14 +3219,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.61</v>
       </c>
     </row>
     <row r="5">
@@ -3170,14 +3257,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.31</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="6">
@@ -3186,13 +3395,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3300,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3311,17 +3312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3331,14 +3352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3347,14 +3390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="4">
@@ -3363,14 +3428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.68</v>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3379,14 +3466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.61</v>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3395,14 +3504,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.31</v>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3411,13 +3542,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.36</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.68</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.31</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.03</v>
       </c>
     </row>
@@ -666,12 +683,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>74.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -681,11 +698,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4223</t>
+          <t>0.3732</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>001157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>国联安睿祺灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>23.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001157</t>
+          <t>002485</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安睿祺灵活配置混合</t>
+          <t>国联安通盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.24</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000664</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安通盈灵活配置混合A</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30.04</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002485</t>
+          <t>002186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安通盈灵活配置混合C</t>
+          <t>国联安鑫享灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.04</t>
+          <t>33.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,32 +863,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001228</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安鑫享灵活配置混合A</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>47.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>001228</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>国联安鑫享灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>33.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002186</t>
+          <t>000664</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安鑫享灵活配置混合C</t>
+          <t>国联安通盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,26 +1043,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4163</t>
+          <t>0.4223</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1064,26 +1081,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>36.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1092,36 +1109,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>001157</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>国联安睿祺灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0529</t>
+          <t>0.0452</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1130,36 +1147,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>006138</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>国联安价值优选股票</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1224,36 +1393,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.72</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7998</t>
+          <t>0.4163</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1262,36 +1431,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.97</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4514</t>
+          <t>0.0752</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1300,36 +1469,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.40</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0816</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1348,26 +1517,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1376,6 +1545,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2057,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2645,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000581-威孚高科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.36</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1.31</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,1192 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.03</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1858,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>74.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3732</t>
+          <t>0.4031</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001157</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安睿祺灵活配置混合</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.67</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0747</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1924,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002485</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安通盈灵活配置混合C</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.0640</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>99.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +2000,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002186</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安鑫享灵活配置混合C</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.73</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.0425</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +2038,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>47.79</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +2076,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001228</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安鑫享灵活配置混合A</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33.73</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -939,35 +2114,225 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000664</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安通盈灵活配置混合A</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1043,12 +2408,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>74.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1058,11 +2423,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4223</t>
+          <t>0.3732</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1071,36 +2436,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>001157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>国联安睿祺灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>23.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1109,36 +2474,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001157</t>
+          <t>002485</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安睿祺灵活配置混合</t>
+          <t>国联安通盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.24</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1147,36 +2512,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000664</t>
+          <t>006138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国联安通盈灵活配置混合A</t>
+          <t>国联安价值优选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30.04</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1185,32 +2550,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002485</t>
+          <t>002186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安通盈灵活配置混合C</t>
+          <t>国联安鑫享灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30.04</t>
+          <t>33.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1223,32 +2588,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001228</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安鑫享灵活配置混合A</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>47.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1261,36 +2626,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006138</t>
+          <t>001228</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安价值优选股票</t>
+          <t>国联安鑫享灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>33.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1299,36 +2664,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002186</t>
+          <t>000664</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安鑫享灵活配置混合C</t>
+          <t>国联安通盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24.66</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +2707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1403,26 +2768,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4163</t>
+          <t>0.4223</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1441,26 +2806,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.99</t>
+          <t>36.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0752</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1469,36 +2834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010746</t>
+          <t>001157</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富安达长三角区域主题混合</t>
+          <t>国联安睿祺灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0529</t>
+          <t>0.0452</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1507,36 +2872,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>006138</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>国联安价值优选股票</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1601,36 +3118,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>257010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>国联安小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.72</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7998</t>
+          <t>0.4163</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1639,36 +3156,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257010</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安小盘精选混合</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.97</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4514</t>
+          <t>0.0752</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1677,36 +3194,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>010746</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>富安达长三角区域主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>32.40</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0816</t>
+          <t>0.0529</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1725,26 +3242,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1753,6 +3270,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2036,7 +3761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2434,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3020,1162 +4745,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6083</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000849</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5604</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4944</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1580</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>540009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信消费红利股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001331</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0927</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003780</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华兴悦定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0927</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001325</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0926</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001327</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0926</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003142</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0921</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003663</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>26.61</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0921</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0828</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161038</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0645</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000850</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003143</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001328</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005258</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0333</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001326</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华弘和灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001332</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005120</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上投摩根量化多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>